--- a/clothes_data.xlsx
+++ b/clothes_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>J_Nik White</t>
+  </si>
+  <si>
+    <t>nike,blue,tshirt,pro,white,hoodie,star,grey,nik,green,yo,yellow,adidas,red</t>
+  </si>
+  <si>
+    <t>nike,blue,tshirt,pro,white,polo,star,grey,nik,green,yo,yellow,adidas,red</t>
+  </si>
+  <si>
+    <t>nike,blue,tshirt,pro,white,fullsleeve,star,grey,nik,green,yo,yellow,adidas,red</t>
+  </si>
+  <si>
+    <t>nike,blue,tshirt,pro,white,jersey,star,grey,nik,green,yo,yellow,adidas,red</t>
+  </si>
+  <si>
+    <t>nike,blue,tshirt,pro,white,coat,star,grey,nik,green,yo,yellow,adidas,red</t>
   </si>
 </sst>
 </file>
@@ -179,6 +194,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -467,20 +490,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B2:B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="78.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,15 +511,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -504,7 +530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -512,7 +538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -520,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -528,7 +554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -543,19 +569,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,15 +590,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -579,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -587,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -595,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -603,7 +633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -618,19 +648,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,15 +669,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -654,7 +688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -662,7 +696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -670,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -678,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -693,19 +727,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,15 +748,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -729,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -737,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -745,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -753,7 +791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -768,19 +806,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="73.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,15 +827,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -804,7 +846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -812,7 +854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -820,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -828,7 +870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
